--- a/public/sample_uploads/capital_commitments_with_kycs.xlsx
+++ b/public/sample_uploads/capital_commitments_with_kycs.xlsx
@@ -22,8 +22,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>Author</author>
-    <author>thimm</author>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -95,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t xml:space="preserve">Investor *</t>
   </si>
@@ -544,6 +543,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve">signatory1@gmail.com,signatory2@gmail.com</t>
@@ -589,7 +591,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -751,8 +753,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1026,11 +1028,11 @@
   </sheetPr>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.56"/>
@@ -1136,22 +1138,22 @@
       <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="6" t="n">
-        <v>44946</v>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -1173,24 +1175,24 @@
         <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>44946</v>
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1206,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -1214,19 +1216,19 @@
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="6" t="n">
-        <v>44946</v>
+      <c r="K4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1242,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -1250,19 +1252,19 @@
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="6" t="n">
-        <v>44946</v>
+      <c r="K5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -1278,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
@@ -1286,14 +1288,14 @@
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="6" t="n">
-        <v>44946</v>
+      <c r="K6" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
@@ -1322,19 +1324,19 @@
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="6" t="n">
-        <v>44946</v>
+      <c r="K7" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -1350,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
@@ -1358,19 +1360,19 @@
       <c r="I8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="6" t="n">
-        <v>44946</v>
+      <c r="K8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -1386,7 +1388,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
@@ -1394,14 +1396,14 @@
       <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="6" t="n">
-        <v>44946</v>
+      <c r="K9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/public/sample_uploads/capital_commitments_with_kycs.xlsx
+++ b/public/sample_uploads/capital_commitments_with_kycs.xlsx
@@ -473,7 +473,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
-    <t xml:space="preserve">Investor *</t>
+    <t xml:space="preserve">Stakeholder *</t>
   </si>
   <si>
     <t xml:space="preserve">Fund *</t>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K2:K9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/sample_uploads/capital_commitments_with_kycs.xlsx
+++ b/public/sample_uploads/capital_commitments_with_kycs.xlsx
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t xml:space="preserve">Stakeholder *</t>
   </si>
@@ -527,6 +527,9 @@
     <t xml:space="preserve">Update Only</t>
   </si>
   <si>
+    <t xml:space="preserve">Form Tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Investor 1</t>
   </si>
   <si>
@@ -555,6 +558,9 @@
   </si>
   <si>
     <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 2</t>
@@ -1028,8 +1034,8 @@
   </sheetPr>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1110,300 +1116,326 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3"/>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1800000</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>1800000</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>2800000</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>1200000</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3000000</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>1000000</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3000000</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3000000</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
